--- a/data/marketBasket.xlsx
+++ b/data/marketBasket.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoranzhang/CS6220/assignment-4-hrcheung/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6496C1F9-CFF0-2C4E-974D-65F82B33ECFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C66401-7BB8-FD4C-B5D6-E219387B97EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="-17140" windowWidth="24820" windowHeight="15680" xr2:uid="{99E647D0-2B9F-EC48-9C39-B7143FBD1F49}"/>
+    <workbookView xWindow="940" yWindow="2300" windowWidth="24820" windowHeight="15680" xr2:uid="{99E647D0-2B9F-EC48-9C39-B7143FBD1F49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -779,7 +779,7 @@
   <dimension ref="A2:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
